--- a/experiment/VWP_CL_Random/__pool__/sub_999.xlsx
+++ b/experiment/VWP_CL_Random/__pool__/sub_999.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\VWP experiment\__pool__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allis\OneDrive\Documents\GitHub\ETLR23-24\experiment\VWP_CL_Random\__pool__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94DB71-9A29-4F91-8A4F-205492655FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04592BC7-8AB3-4759-92FB-749C59F8A271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{F45BD464-817C-47AC-9645-0C30EE893EE0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F45BD464-817C-47AC-9645-0C30EE893EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="362">
   <si>
     <t>pic1</t>
   </si>
@@ -975,6 +975,153 @@
   </si>
   <si>
     <t>pic4</t>
+  </si>
+  <si>
+    <t>stim_name</t>
+  </si>
+  <si>
+    <t>p_01_LF</t>
+  </si>
+  <si>
+    <t>u_02_LF</t>
+  </si>
+  <si>
+    <t>p_03_LF</t>
+  </si>
+  <si>
+    <t>u_04_LF</t>
+  </si>
+  <si>
+    <t>p_05_LF</t>
+  </si>
+  <si>
+    <t>u_06_LF</t>
+  </si>
+  <si>
+    <t>p_07_LF</t>
+  </si>
+  <si>
+    <t>u_08_LF</t>
+  </si>
+  <si>
+    <t>p_09_LF</t>
+  </si>
+  <si>
+    <t>u_10_LF</t>
+  </si>
+  <si>
+    <t>p_11_LF</t>
+  </si>
+  <si>
+    <t>u_12_LF</t>
+  </si>
+  <si>
+    <t>p_13_LF</t>
+  </si>
+  <si>
+    <t>u_14_LF</t>
+  </si>
+  <si>
+    <t>p_15_LF</t>
+  </si>
+  <si>
+    <t>u_16_LF</t>
+  </si>
+  <si>
+    <t>p_17_LF</t>
+  </si>
+  <si>
+    <t>u_18_LF</t>
+  </si>
+  <si>
+    <t>p_19_LF</t>
+  </si>
+  <si>
+    <t>u_20_LF</t>
+  </si>
+  <si>
+    <t>p_21_LF</t>
+  </si>
+  <si>
+    <t>u_22_LF</t>
+  </si>
+  <si>
+    <t>p_23_LF</t>
+  </si>
+  <si>
+    <t>u_24_LF</t>
+  </si>
+  <si>
+    <t>p_25_LF</t>
+  </si>
+  <si>
+    <t>u_26_LF</t>
+  </si>
+  <si>
+    <t>p_27_LF</t>
+  </si>
+  <si>
+    <t>u_28_LF</t>
+  </si>
+  <si>
+    <t>p_29_LF</t>
+  </si>
+  <si>
+    <t>u_30_LF</t>
+  </si>
+  <si>
+    <t>p_31_LF</t>
+  </si>
+  <si>
+    <t>u_32_LF</t>
+  </si>
+  <si>
+    <t>p_33_LF</t>
+  </si>
+  <si>
+    <t>u_34_LF</t>
+  </si>
+  <si>
+    <t>p_35_LF</t>
+  </si>
+  <si>
+    <t>u_36_LF</t>
+  </si>
+  <si>
+    <t>p_37_LF</t>
+  </si>
+  <si>
+    <t>u_38_LF</t>
+  </si>
+  <si>
+    <t>p_39_LF</t>
+  </si>
+  <si>
+    <t>u_40_LF</t>
+  </si>
+  <si>
+    <t>p_41_LF</t>
+  </si>
+  <si>
+    <t>u_42_LF</t>
+  </si>
+  <si>
+    <t>p_43_LF</t>
+  </si>
+  <si>
+    <t>u_44_LF</t>
+  </si>
+  <si>
+    <t>p_45_LF</t>
+  </si>
+  <si>
+    <t>u_46_LF</t>
+  </si>
+  <si>
+    <t>p_47_LF</t>
+  </si>
+  <si>
+    <t>u_48_LF</t>
   </si>
 </sst>
 </file>
@@ -1326,15 +1473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F643DA9-B95E-4920-9AEB-1A3A26E4193F}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="13" max="13" width="10.52734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1372,19 +1522,22 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1421,20 +1574,23 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N2">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1471,20 +1627,23 @@
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1521,20 +1680,23 @@
       <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N4">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1571,20 +1733,23 @@
       <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="M5">
-        <v>4.1113349499999998</v>
+      <c r="M5" t="s">
+        <v>317</v>
       </c>
       <c r="N5">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1621,20 +1786,23 @@
       <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>318</v>
+      </c>
+      <c r="N6">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1671,20 +1839,23 @@
       <c r="L7" t="s">
         <v>57</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>319</v>
+      </c>
+      <c r="N7">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1721,20 +1892,23 @@
       <c r="L8" t="s">
         <v>62</v>
       </c>
-      <c r="M8">
-        <v>4.6252518189999998</v>
+      <c r="M8" t="s">
+        <v>320</v>
       </c>
       <c r="N8">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1771,20 +1945,23 @@
       <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>321</v>
+      </c>
+      <c r="N9">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1821,20 +1998,23 @@
       <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>322</v>
+      </c>
+      <c r="N10">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>25</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1871,20 +2051,23 @@
       <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N11">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1921,20 +2104,23 @@
       <c r="L12" t="s">
         <v>86</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="s">
+        <v>324</v>
+      </c>
+      <c r="N12">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1971,20 +2157,23 @@
       <c r="L13" t="s">
         <v>93</v>
       </c>
-      <c r="M13">
-        <v>4.1113349499999998</v>
+      <c r="M13" t="s">
+        <v>325</v>
       </c>
       <c r="N13">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P13" t="s">
         <v>25</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2021,20 +2210,23 @@
       <c r="L14" t="s">
         <v>98</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>326</v>
+      </c>
+      <c r="N14">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>25</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2071,20 +2263,23 @@
       <c r="L15" t="s">
         <v>105</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>327</v>
+      </c>
+      <c r="N15">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>25</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2121,20 +2316,23 @@
       <c r="L16" t="s">
         <v>110</v>
       </c>
-      <c r="M16">
-        <v>4.1113349499999998</v>
+      <c r="M16" t="s">
+        <v>328</v>
       </c>
       <c r="N16">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P16" t="s">
         <v>25</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -2171,20 +2369,23 @@
       <c r="L17" t="s">
         <v>117</v>
       </c>
-      <c r="M17">
-        <v>3.5974180819999999</v>
+      <c r="M17" t="s">
+        <v>329</v>
       </c>
       <c r="N17">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P17" t="s">
         <v>25</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -2221,20 +2422,23 @@
       <c r="L18" t="s">
         <v>122</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="s">
+        <v>330</v>
+      </c>
+      <c r="N18">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>124</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2271,20 +2475,23 @@
       <c r="L19" t="s">
         <v>130</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="s">
+        <v>331</v>
+      </c>
+      <c r="N19">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>124</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -2321,20 +2528,23 @@
       <c r="L20" t="s">
         <v>135</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="s">
+        <v>332</v>
+      </c>
+      <c r="N20">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>124</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -2371,20 +2581,23 @@
       <c r="L21" t="s">
         <v>142</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="s">
+        <v>333</v>
+      </c>
+      <c r="N21">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>124</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2421,20 +2634,23 @@
       <c r="L22" t="s">
         <v>147</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="s">
+        <v>334</v>
+      </c>
+      <c r="N22">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>124</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -2471,20 +2687,23 @@
       <c r="L23" t="s">
         <v>154</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="s">
+        <v>335</v>
+      </c>
+      <c r="N23">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>124</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -2521,20 +2740,23 @@
       <c r="L24" t="s">
         <v>159</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="s">
+        <v>336</v>
+      </c>
+      <c r="N24">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>124</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -2571,20 +2793,23 @@
       <c r="L25" t="s">
         <v>166</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>124</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -2621,20 +2846,23 @@
       <c r="L26" t="s">
         <v>171</v>
       </c>
-      <c r="M26">
-        <v>3.0835012129999999</v>
+      <c r="M26" t="s">
+        <v>338</v>
       </c>
       <c r="N26">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P26" t="s">
         <v>124</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -2671,20 +2899,23 @@
       <c r="L27" t="s">
         <v>178</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="s">
+        <v>339</v>
+      </c>
+      <c r="N27">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>124</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -2721,20 +2952,23 @@
       <c r="L28" t="s">
         <v>183</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="s">
+        <v>340</v>
+      </c>
+      <c r="N28">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>5.1391686879999998</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>124</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -2771,20 +3005,23 @@
       <c r="L29" t="s">
         <v>190</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="s">
+        <v>341</v>
+      </c>
+      <c r="N29">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>5.1391686879999998</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>124</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -2821,20 +3058,23 @@
       <c r="L30" t="s">
         <v>195</v>
       </c>
-      <c r="M30">
-        <v>4.1113349499999998</v>
+      <c r="M30" t="s">
+        <v>342</v>
       </c>
       <c r="N30">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P30" t="s">
         <v>124</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -2871,20 +3111,23 @@
       <c r="L31" t="s">
         <v>202</v>
       </c>
-      <c r="M31">
-        <v>4.6252518189999998</v>
+      <c r="M31" t="s">
+        <v>343</v>
       </c>
       <c r="N31">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P31" t="s">
         <v>124</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -2921,20 +3164,23 @@
       <c r="L32" t="s">
         <v>207</v>
       </c>
-      <c r="M32">
-        <v>4.1113349499999998</v>
+      <c r="M32" t="s">
+        <v>344</v>
       </c>
       <c r="N32">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P32" t="s">
         <v>124</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -2971,20 +3217,23 @@
       <c r="L33" t="s">
         <v>214</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="s">
+        <v>345</v>
+      </c>
+      <c r="N33">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>124</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -3021,20 +3270,23 @@
       <c r="L34" t="s">
         <v>219</v>
       </c>
-      <c r="M34">
-        <v>4.6252518189999998</v>
+      <c r="M34" t="s">
+        <v>346</v>
       </c>
       <c r="N34">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P34" t="s">
         <v>221</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -3071,20 +3323,23 @@
       <c r="L35" t="s">
         <v>227</v>
       </c>
-      <c r="M35">
-        <v>4.6252518189999998</v>
+      <c r="M35" t="s">
+        <v>347</v>
       </c>
       <c r="N35">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P35" t="s">
         <v>221</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -3121,20 +3376,23 @@
       <c r="L36" t="s">
         <v>232</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="s">
+        <v>348</v>
+      </c>
+      <c r="N36">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>221</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>234</v>
       </c>
@@ -3171,20 +3429,23 @@
       <c r="L37" t="s">
         <v>239</v>
       </c>
-      <c r="M37">
-        <v>4.1113349499999998</v>
+      <c r="M37" t="s">
+        <v>349</v>
       </c>
       <c r="N37">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P37" t="s">
         <v>221</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -3221,20 +3482,23 @@
       <c r="L38" t="s">
         <v>244</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="s">
+        <v>350</v>
+      </c>
+      <c r="N38">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>221</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>246</v>
       </c>
@@ -3271,20 +3535,23 @@
       <c r="L39" t="s">
         <v>251</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="s">
+        <v>351</v>
+      </c>
+      <c r="N39">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>5.6530855569999998</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>221</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -3321,20 +3588,23 @@
       <c r="L40" t="s">
         <v>256</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="s">
+        <v>352</v>
+      </c>
+      <c r="N40">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>221</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -3371,20 +3641,23 @@
       <c r="L41" t="s">
         <v>263</v>
       </c>
-      <c r="M41">
-        <v>3.5974180819999999</v>
+      <c r="M41" t="s">
+        <v>353</v>
       </c>
       <c r="N41">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P41" t="s">
         <v>221</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>264</v>
       </c>
@@ -3421,20 +3694,23 @@
       <c r="L42" t="s">
         <v>268</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="s">
+        <v>354</v>
+      </c>
+      <c r="N42">
         <v>4.1113349499999998</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>221</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>270</v>
       </c>
@@ -3471,20 +3747,23 @@
       <c r="L43" t="s">
         <v>275</v>
       </c>
-      <c r="M43">
-        <v>3.0835012129999999</v>
+      <c r="M43" t="s">
+        <v>355</v>
       </c>
       <c r="N43">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P43" t="s">
         <v>221</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>276</v>
       </c>
@@ -3521,20 +3800,23 @@
       <c r="L44" t="s">
         <v>280</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="s">
+        <v>356</v>
+      </c>
+      <c r="N44">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>221</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>282</v>
       </c>
@@ -3571,20 +3853,23 @@
       <c r="L45" t="s">
         <v>287</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="s">
+        <v>357</v>
+      </c>
+      <c r="N45">
         <v>4.6252518189999998</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>5.1391686879999998</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>221</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -3621,20 +3906,23 @@
       <c r="L46" t="s">
         <v>292</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="s">
+        <v>358</v>
+      </c>
+      <c r="N46">
         <v>4.6252518189999998</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>5.6530855569999998</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>221</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -3671,20 +3959,23 @@
       <c r="L47" t="s">
         <v>299</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="s">
+        <v>359</v>
+      </c>
+      <c r="N47">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>221</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>300</v>
       </c>
@@ -3721,20 +4012,23 @@
       <c r="L48" t="s">
         <v>304</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="s">
+        <v>360</v>
+      </c>
+      <c r="N48">
         <v>4.6252518189999998</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>221</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -3771,17 +4065,62 @@
       <c r="L49" t="s">
         <v>311</v>
       </c>
-      <c r="M49">
-        <v>4.1113349499999998</v>
+      <c r="M49" t="s">
+        <v>361</v>
       </c>
       <c r="N49">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P49" t="s">
         <v>221</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="M50" t="str">
+        <f t="shared" ref="M3:M56" si="0">LEFT(L50,7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
